--- a/LIBA14/files/Q11.xlsx
+++ b/LIBA14/files/Q11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\LIBA14\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EE8A7D-25AB-46CD-8115-DB90202C512B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319FCFCA-5563-4217-9CF7-5F60970AB58A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/LIBA14/files/Q11.xlsx
+++ b/LIBA14/files/Q11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\LIBA14\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319FCFCA-5563-4217-9CF7-5F60970AB58A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3709F613-B880-40F0-AC4B-27B68B87F3E7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>Joe went to the store.</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Will you bring chips for the party that we are having for Jan, and can you invite Marie?</t>
+  </si>
+  <si>
+    <t>Will you bring chips for the party that we are having for Jane, and can you invite Marie?</t>
+  </si>
+  <si>
+    <t>123 qwe !@# 123qwe 123qwe!@# !@#qwe123 !@#123qwe 123!@# qwe!@#</t>
   </si>
 </sst>
 </file>
@@ -439,345 +445,319 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:S66"/>
+      <selection activeCell="B1" sqref="B1:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="75.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N66" s="1"/>
     </row>
   </sheetData>
